--- a/Tabela taxa de acertos.xlsx
+++ b/Tabela taxa de acertos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albs_\source\repos\tcc-machine-vision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B645E0D3-0FA1-481F-A038-870F2FBD7627}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BC4077-183B-4E1E-A2C6-DC253A8B772B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="8385" windowWidth="21600" windowHeight="12735" xr2:uid="{7951B0BF-D5F3-4312-A0EB-2422615E1C9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7951B0BF-D5F3-4312-A0EB-2422615E1C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Taxa de acerto da imagem mais semelhante</t>
   </si>
@@ -42,13 +42,46 @@
     <t>Dataset de busca</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>ResNet18</t>
   </si>
   <si>
-    <t>Column2</t>
+    <t>ResNet34</t>
   </si>
   <si>
-    <t>Column3</t>
+    <t>ResNet50</t>
+  </si>
+  <si>
+    <t>ResNet101</t>
+  </si>
+  <si>
+    <t>ResNet152</t>
+  </si>
+  <si>
+    <t>Tempo total de execução</t>
+  </si>
+  <si>
+    <t>43min 52s</t>
+  </si>
+  <si>
+    <t>45min 14s</t>
+  </si>
+  <si>
+    <t>22.1 s</t>
+  </si>
+  <si>
+    <t>21.6 s</t>
+  </si>
+  <si>
+    <t>55min 20s</t>
+  </si>
+  <si>
+    <t>21.3 s</t>
+  </si>
+  <si>
+    <t>54min 22s</t>
+  </si>
+  <si>
+    <t>1h 3min 56s</t>
   </si>
 </sst>
 </file>
@@ -58,7 +91,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -99,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +163,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -154,24 +193,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -191,16 +291,1184 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{730C3CCB-C700-4F5F-B867-83AFB1F29F55}" name="Table10" displayName="Table10" ref="I5:K11" totalsRowShown="0">
-  <autoFilter ref="I5:K11" xr:uid="{DC3868E1-D47F-49B4-8953-70AABEAD508A}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{21E407B3-822C-419B-BBF6-DCD233675E1F}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{53E8B53A-6C89-4066-8CA7-E64D6DC5A07A}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{5A88AD07-83C5-4091-9100-8FD7FBD6B9CA}" name="Column3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> das redes convolucionais</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dataset de exemplo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$5:$C$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="19"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tempo total de execução</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Tempo total de execução</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Tempo total de execução</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Tempo total de execução</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Tempo total de execução</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ResNet18</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ResNet34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>ResNet50</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>ResNet101</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>ResNet152</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4851-4AD5-B2F7-2A81B0B63694}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dataset de busca</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$5:$C$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="19"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tempo total de execução</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Tempo total de execução</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Tempo total de execução</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Tempo total de execução</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Tempo total de execução</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ResNet18</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ResNet34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>ResNet50</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>ResNet101</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>ResNet152</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4851-4AD5-B2F7-2A81B0B63694}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="523310232"/>
+        <c:axId val="523308920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="523310232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523308920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="523308920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523310232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD25EE4-B808-46F0-9934-F16E7F415C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,136 +1768,1109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7726F966-5CA9-4D98-989C-2BBDF050921C}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>6071</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E5" s="7">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D6" s="13">
         <v>0.94499999999999995</v>
       </c>
-      <c r="D5" s="9">
+      <c r="E6" s="13">
         <v>0.96699999999999997</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.99199999999999999</v>
+      </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.97</v>
+      </c>
       <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B21:B23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tabela taxa de acertos.xlsx
+++ b/Tabela taxa de acertos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albs_\source\repos\tcc-machine-vision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BC4077-183B-4E1E-A2C6-DC253A8B772B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210DEC50-6FBD-41C3-8ABC-E2794BA725DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7951B0BF-D5F3-4312-A0EB-2422615E1C9C}"/>
   </bookViews>
@@ -266,11 +266,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -312,7 +312,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -326,11 +326,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Comparação</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> das redes convolucionais</a:t>
+              <a:t>Comparação das redes convolucionais</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -348,7 +344,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -395,11 +391,75 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$5:$C$23</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$5:$C$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$5:$C$6,Sheet1!$B$8:$C$10,Sheet1!$B$12:$C$14,Sheet1!$B$16:$C$18,Sheet1!$B$20:$C$22)</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Taxa de acerto da imagem mais semelhante</c:v>
@@ -407,26 +467,23 @@
                   <c:pt idx="1">
                     <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Tempo total de execução</c:v>
+                  <c:pt idx="3">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
                     <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Tempo total de execução</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Taxa de acerto da imagem mais semelhante</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="7">
                     <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
                   <c:pt idx="10">
-                    <c:v>Tempo total de execução</c:v>
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>Taxa de acerto da imagem mais semelhante</c:v>
@@ -434,33 +491,21 @@
                   <c:pt idx="13">
                     <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
                   </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Tempo total de execução</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Tempo total de execução</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>ResNet18</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="3">
                     <c:v>ResNet34</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="6">
                     <c:v>ResNet50</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="9">
                     <c:v>ResNet101</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="12">
                     <c:v>ResNet152</c:v>
                   </c:pt>
                 </c:lvl>
@@ -469,54 +514,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$23</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$5:$D$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$5:$D$6,Sheet1!$D$8:$D$10,Sheet1!$D$12:$D$14,Sheet1!$D$16:$D$18,Sheet1!$D$20:$D$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.94499999999999995</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="7">
                   <c:v>0.95799999999999996</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.93500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,11 +588,75 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$5:$C$23</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$5:$C$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$5:$C$6,Sheet1!$B$8:$C$10,Sheet1!$B$12:$C$14,Sheet1!$B$16:$C$18,Sheet1!$B$20:$C$22)</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Taxa de acerto da imagem mais semelhante</c:v>
@@ -563,26 +664,23 @@
                   <c:pt idx="1">
                     <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Tempo total de execução</c:v>
+                  <c:pt idx="3">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
                     <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Tempo total de execução</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Taxa de acerto da imagem mais semelhante</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="7">
                     <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
+                  </c:pt>
                   <c:pt idx="10">
-                    <c:v>Tempo total de execução</c:v>
+                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>Taxa de acerto da imagem mais semelhante</c:v>
@@ -590,33 +688,21 @@
                   <c:pt idx="13">
                     <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
                   </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Tempo total de execução</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Taxa de acerto da imagem mais semelhante</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Taxa de acerto das 4 imagens mais semelhantes</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Tempo total de execução</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>ResNet18</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="3">
                     <c:v>ResNet34</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="6">
                     <c:v>ResNet50</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="9">
                     <c:v>ResNet101</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="12">
                     <c:v>ResNet152</c:v>
                   </c:pt>
                 </c:lvl>
@@ -625,54 +711,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$23</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$5:$E$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$E$5:$E$6,Sheet1!$E$8:$E$10,Sheet1!$E$12:$E$14,Sheet1!$E$16:$E$18,Sheet1!$E$20:$E$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.96699999999999997</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                <c:pt idx="3">
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0.97899999999999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="7">
                   <c:v>0.96299999999999997</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.95799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98</c:v>
+                  <c:v>0.96799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.96799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,15 +762,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="523310232"/>
         <c:axId val="523308920"/>
       </c:barChart>
@@ -703,6 +782,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -725,7 +818,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -753,53 +846,12 @@
           <c:orientation val="minMax"/>
           <c:min val="0.9"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="523310232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -813,7 +865,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -856,7 +908,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -928,7 +980,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -939,7 +991,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -962,18 +1014,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -985,7 +1037,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -993,11 +1045,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1029,35 +1084,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1069,30 +1134,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1114,15 +1183,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1137,15 +1204,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1156,17 +1223,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1175,10 +1241,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1194,21 +1260,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1227,17 +1287,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1246,17 +1305,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1265,17 +1323,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1296,7 +1353,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1304,7 +1361,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1317,6 +1374,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1324,10 +1392,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1348,7 +1416,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1357,14 +1425,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1378,7 +1446,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1394,8 +1462,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1411,6 +1479,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1418,14 +1497,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1771,7 +1844,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1956,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1913,7 +1986,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="12" t="s">
         <v>1</v>
       </c>
@@ -1941,14 +2014,14 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1"/>
@@ -1991,7 +2064,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -2021,7 +2094,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="11" t="s">
         <v>1</v>
       </c>
@@ -2049,14 +2122,14 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1"/>
@@ -2099,7 +2172,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -2129,7 +2202,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="11" t="s">
         <v>1</v>
       </c>
@@ -2157,14 +2230,14 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1"/>
@@ -2207,7 +2280,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -2237,7 +2310,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="11" t="s">
         <v>1</v>
       </c>
@@ -2265,14 +2338,14 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="1"/>
@@ -2315,7 +2388,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -2345,7 +2418,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="11" t="s">
         <v>1</v>
       </c>
@@ -2373,14 +2446,14 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="1"/>
